--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:40:00-03:00</t>
+    <t>2023-01-25T12:03:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,11 +446,11 @@
     <t>PertinenciaAtencionBox</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtBoolean}
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtBoolPertinenciaAtencionBox}
 </t>
   </si>
   <si>
-    <t>ExtBoolean</t>
+    <t>ExtBool Pertinencia Atencion Box</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -463,11 +463,11 @@
     <t>MotivoNoPertinencia</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtString}
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtStringMotivoNoPertinencia}
 </t>
   </si>
   <si>
-    <t>ExtString</t>
+    <t>ExtString MotivoNoPertinencia</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>in-progress</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>
@@ -1962,7 +1965,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4408,7 +4411,7 @@
         <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>85</v>
@@ -4437,7 +4440,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4455,10 +4458,10 @@
         <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4491,24 +4494,24 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4531,16 +4534,16 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4590,7 +4593,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4619,10 +4622,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4731,10 +4734,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4845,14 +4848,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4874,10 +4877,10 @@
         <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>149</v>
@@ -4932,7 +4935,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4961,10 +4964,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5023,10 +5026,10 @@
         <v>176</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5044,7 +5047,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>84</v>
@@ -5073,10 +5076,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5102,10 +5105,10 @@
         <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5156,7 +5159,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>84</v>
@@ -5185,10 +5188,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5211,13 +5214,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5247,10 +5250,10 @@
         <v>187</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5268,7 +5271,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -5286,21 +5289,21 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5323,13 +5326,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5380,7 +5383,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5521,10 +5524,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5635,14 +5638,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5664,10 +5667,10 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>149</v>
@@ -5722,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5751,10 +5754,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5777,13 +5780,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5813,10 +5816,10 @@
         <v>187</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5834,7 +5837,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>84</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5892,10 +5895,10 @@
         <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5946,7 +5949,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>84</v>
@@ -5975,10 +5978,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6004,13 +6007,13 @@
         <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6036,13 +6039,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6060,7 +6063,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6075,24 +6078,24 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6118,10 +6121,10 @@
         <v>182</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6148,13 +6151,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6172,7 +6175,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6187,7 +6190,7 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>165</v>
@@ -6196,15 +6199,15 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6230,10 +6233,10 @@
         <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6260,13 +6263,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6284,7 +6287,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6302,25 +6305,25 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6339,16 +6342,16 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6398,7 +6401,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6413,24 +6416,24 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6453,13 +6456,13 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6510,7 +6513,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6525,28 +6528,28 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6565,13 +6568,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6622,7 +6625,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6637,10 +6640,10 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6651,10 +6654,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6677,13 +6680,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6734,7 +6737,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6749,24 +6752,24 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6875,10 +6878,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6989,14 +6992,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7018,10 +7021,10 @@
         <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>149</v>
@@ -7076,7 +7079,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7105,10 +7108,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7134,13 +7137,13 @@
         <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7169,10 +7172,10 @@
         <v>187</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7190,7 +7193,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7205,24 +7208,24 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7248,10 +7251,10 @@
         <v>210</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7302,7 +7305,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7320,21 +7323,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7357,13 +7360,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7414,7 +7417,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7429,24 +7432,24 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7469,13 +7472,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7526,7 +7529,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7541,24 +7544,24 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7584,13 +7587,13 @@
         <v>210</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7640,7 +7643,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7655,24 +7658,24 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7695,16 +7698,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7754,7 +7757,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7769,28 +7772,28 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7812,13 +7815,13 @@
         <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7847,10 +7850,10 @@
         <v>108</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7868,7 +7871,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7883,28 +7886,28 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7923,16 +7926,16 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7982,7 +7985,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7997,24 +8000,24 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8037,13 +8040,13 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8094,7 +8097,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8112,7 +8115,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8123,10 +8126,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8235,10 +8238,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8349,14 +8352,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8378,10 +8381,10 @@
         <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>149</v>
@@ -8436,7 +8439,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8465,14 +8468,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8491,16 +8494,16 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8550,7 +8553,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>84</v>
@@ -8565,24 +8568,24 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8608,10 +8611,10 @@
         <v>182</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8641,10 +8644,10 @@
         <v>108</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8662,7 +8665,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8691,10 +8694,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8717,13 +8720,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8774,7 +8777,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8792,7 +8795,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8803,10 +8806,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8829,16 +8832,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8888,7 +8891,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8906,7 +8909,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8917,10 +8920,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8943,16 +8946,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9002,7 +9005,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -9020,7 +9023,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9031,10 +9034,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9143,10 +9146,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9257,14 +9260,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9286,10 +9289,10 @@
         <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>149</v>
@@ -9344,7 +9347,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9373,10 +9376,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9402,10 +9405,10 @@
         <v>153</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9456,7 +9459,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9480,15 +9483,15 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9511,13 +9514,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9568,7 +9571,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9586,7 +9589,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9597,10 +9600,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9626,10 +9629,10 @@
         <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9659,10 +9662,10 @@
         <v>108</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9680,7 +9683,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9698,21 +9701,21 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9738,10 +9741,10 @@
         <v>182</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9768,13 +9771,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9792,7 +9795,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9816,15 +9819,15 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9850,16 +9853,16 @@
         <v>182</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9884,13 +9887,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9908,7 +9911,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9926,21 +9929,21 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9966,10 +9969,10 @@
         <v>182</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9999,10 +10002,10 @@
         <v>108</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>77</v>
@@ -10020,7 +10023,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10038,21 +10041,21 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10078,10 +10081,10 @@
         <v>182</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10111,10 +10114,10 @@
         <v>108</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10132,7 +10135,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10150,21 +10153,21 @@
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10187,13 +10190,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10244,7 +10247,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10262,21 +10265,21 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10302,10 +10305,10 @@
         <v>182</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10332,13 +10335,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10356,7 +10359,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10374,21 +10377,21 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10411,16 +10414,16 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10470,7 +10473,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10488,7 +10491,7 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10499,10 +10502,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10611,10 +10614,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10725,14 +10728,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10754,10 +10757,10 @@
         <v>129</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>149</v>
@@ -10812,7 +10815,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10841,10 +10844,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10867,13 +10870,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10924,7 +10927,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>84</v>
@@ -10939,24 +10942,24 @@
         <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10982,13 +10985,13 @@
         <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11017,10 +11020,10 @@
         <v>176</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -11038,7 +11041,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -11056,7 +11059,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11067,10 +11070,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11096,13 +11099,13 @@
         <v>182</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11128,13 +11131,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11152,7 +11155,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -11181,10 +11184,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11210,10 +11213,10 @@
         <v>210</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11264,7 +11267,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11282,7 +11285,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11293,10 +11296,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11322,10 +11325,10 @@
         <v>217</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11376,7 +11379,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11391,24 +11394,24 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11431,16 +11434,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11490,7 +11493,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11505,10 +11508,10 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -726,7 +726,7 @@
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
-    <t>in-progress</t>
+    <t>finished</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1958,17 +1958,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1977,26 +1977,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1958,17 +1958,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1977,26 +1977,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,137 +419,104 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.extension:PertinenciaAtencionBox</t>
-  </si>
-  <si>
-    <t>PertinenciaAtencionBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtBoolPertinenciaAtencionBox}
-</t>
-  </si>
-  <si>
-    <t>ExtBool Pertinencia Atencion Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Encounter.extension:MotivoNoPertinencia</t>
-  </si>
-  <si>
-    <t>MotivoNoPertinencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtStringMotivoNoPertinencia}
-</t>
-  </si>
-  <si>
-    <t>ExtString MotivoNoPertinencia</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1949,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1960,7 +1927,7 @@
   <cols>
     <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1968,7 +1935,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2924,11 +2891,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2943,15 +2910,17 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2988,14 +2957,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -3016,7 +2987,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3030,41 +3001,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3112,7 +3085,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3121,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -3130,7 +3103,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3144,17 +3117,15 @@
         <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>85</v>
@@ -3166,13 +3137,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>145</v>
@@ -3226,7 +3197,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3235,66 +3206,62 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3342,25 +3309,25 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3371,41 +3338,43 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3442,19 +3411,19 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3466,27 +3435,27 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3503,13 +3472,13 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>163</v>
@@ -3517,8 +3486,12 @@
       <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3542,13 +3515,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3566,7 +3539,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3578,38 +3551,38 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3618,21 +3591,23 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3656,63 +3631,63 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3729,25 +3704,25 @@
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3760,7 +3735,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3772,13 +3747,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3796,7 +3771,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3814,21 +3789,21 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3836,13 +3811,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
@@ -3851,20 +3826,18 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3876,7 +3849,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3888,13 +3861,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3912,7 +3885,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3930,21 +3903,21 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3967,20 +3940,16 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3992,7 +3961,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -4028,7 +3997,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4046,21 +4015,21 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4068,13 +4037,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -4083,16 +4052,16 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4106,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>78</v>
@@ -4142,7 +4111,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4160,21 +4129,21 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4182,30 +4151,32 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4215,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>78</v>
@@ -4230,13 +4201,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4254,10 +4225,10 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>85</v>
@@ -4269,24 +4240,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4297,7 +4268,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4306,19 +4277,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4368,13 +4339,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -4386,21 +4357,21 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4408,32 +4379,30 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4443,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>78</v>
@@ -4458,13 +4427,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4482,10 +4451,10 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>85</v>
@@ -4494,31 +4463,31 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4537,16 +4506,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4596,7 +4565,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4608,13 +4577,13 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4625,42 +4594,46 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4708,25 +4681,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4737,21 +4710,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4763,17 +4736,15 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4798,13 +4769,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4822,25 +4793,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4851,46 +4822,42 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4938,25 +4905,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4967,10 +4934,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4990,16 +4957,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5026,13 +4993,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5050,7 +5017,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
@@ -5068,21 +5035,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5090,10 +5057,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5105,13 +5072,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5162,13 +5129,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -5180,7 +5147,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5191,10 +5158,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5202,7 +5169,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
@@ -5214,16 +5181,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5250,13 +5217,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5274,10 +5241,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>85</v>
@@ -5286,31 +5253,31 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5329,15 +5296,17 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5386,7 +5355,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5398,13 +5367,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5415,42 +5384,46 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5498,25 +5471,25 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5527,21 +5500,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5553,17 +5526,15 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5588,13 +5559,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5612,25 +5583,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5641,46 +5612,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5728,25 +5695,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5757,10 +5724,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5768,10 +5735,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5780,18 +5747,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5816,13 +5785,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5840,13 +5809,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5855,24 +5824,24 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5880,7 +5849,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>85</v>
@@ -5892,16 +5861,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5928,13 +5897,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5952,10 +5921,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>85</v>
@@ -5967,24 +5936,24 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5995,7 +5964,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6004,20 +5973,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6042,37 +6009,37 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Z36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -6081,28 +6048,28 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6121,15 +6088,17 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6154,31 +6123,31 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6193,24 +6162,24 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6221,7 +6190,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6230,16 +6199,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6266,13 +6235,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6290,13 +6259,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6305,35 +6274,35 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>155</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6342,20 +6311,18 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6404,13 +6371,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6419,24 +6386,24 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6459,13 +6426,13 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6516,7 +6483,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6531,38 +6498,38 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -6571,13 +6538,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6628,25 +6595,25 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>155</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6657,14 +6624,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6680,18 +6647,20 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6740,7 +6709,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6752,59 +6721,63 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6852,25 +6825,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6881,14 +6854,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6904,19 +6877,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>169</v>
+        <v>321</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>150</v>
+        <v>322</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6942,13 +6915,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6966,7 +6939,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6978,63 +6951,59 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7082,39 +7051,39 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7125,7 +7094,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7137,17 +7106,15 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7172,13 +7139,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7196,13 +7163,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7211,24 +7178,24 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7239,7 +7206,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7248,16 +7215,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7308,13 +7275,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7323,24 +7290,24 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7360,18 +7327,20 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7420,7 +7389,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7435,24 +7404,24 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7463,7 +7432,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7472,18 +7441,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7532,13 +7503,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7547,35 +7518,35 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7584,19 +7555,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7622,13 +7593,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7646,13 +7617,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7661,35 +7632,35 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7698,19 +7669,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7760,13 +7731,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7775,28 +7746,28 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7815,17 +7786,15 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7850,13 +7819,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7874,7 +7843,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7889,35 +7858,35 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7926,20 +7895,18 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7988,43 +7955,43 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>154</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>379</v>
+        <v>155</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8040,18 +8007,20 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8100,7 +8069,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8112,13 +8081,13 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8129,42 +8098,46 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8212,25 +8185,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8241,21 +8214,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8264,19 +8237,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8326,75 +8299,71 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>166</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>245</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8418,13 +8387,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8442,25 +8411,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8471,18 +8440,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -8494,20 +8463,18 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8556,10 +8523,10 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>85</v>
@@ -8571,16 +8538,16 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -8599,7 +8566,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8611,15 +8578,17 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8644,13 +8613,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8674,7 +8643,7 @@
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -8686,7 +8655,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>166</v>
+        <v>405</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8697,10 +8666,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8723,7 +8692,7 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>406</v>
+        <v>227</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>407</v>
@@ -8731,7 +8700,9 @@
       <c r="M60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8780,7 +8751,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8798,7 +8769,7 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8809,10 +8780,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8823,7 +8794,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8835,17 +8806,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>412</v>
+        <v>152</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8894,25 +8863,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>410</v>
+        <v>154</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>415</v>
+        <v>155</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8923,21 +8892,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8949,16 +8918,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>419</v>
+        <v>134</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9008,25 +8977,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>416</v>
+        <v>161</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>420</v>
+        <v>155</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9037,42 +9006,46 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9120,25 +9093,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9149,21 +9122,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9175,17 +9148,15 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9234,75 +9205,71 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>245</v>
+        <v>420</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9350,25 +9317,25 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>422</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9379,10 +9346,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9405,13 +9372,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9438,13 +9405,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9462,7 +9429,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9480,21 +9447,21 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>158</v>
+        <v>428</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9517,13 +9484,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9550,13 +9517,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9574,7 +9541,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9592,21 +9559,21 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9617,7 +9584,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9629,16 +9596,20 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9662,37 +9633,37 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
@@ -9704,21 +9675,21 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9729,7 +9700,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9741,13 +9712,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9774,13 +9745,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9798,13 +9769,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -9816,21 +9787,21 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>166</v>
+        <v>450</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9853,20 +9824,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9890,31 +9857,31 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Z70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9932,21 +9899,21 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9957,7 +9924,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9969,13 +9936,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>183</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10002,37 +9969,37 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -10044,21 +10011,21 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10069,7 +10036,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10081,13 +10048,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10114,13 +10081,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10138,13 +10105,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10156,21 +10123,21 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10181,7 +10148,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10193,15 +10160,17 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>429</v>
+        <v>227</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10250,13 +10219,13 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
@@ -10268,21 +10237,21 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10305,13 +10274,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>475</v>
+        <v>152</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>476</v>
+        <v>153</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10338,13 +10307,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10362,7 +10331,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>474</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10374,31 +10343,31 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>479</v>
+        <v>155</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10417,16 +10386,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>482</v>
+        <v>132</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>483</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>484</v>
+        <v>134</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10476,7 +10445,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>481</v>
+        <v>161</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10488,13 +10457,13 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>485</v>
+        <v>155</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10505,42 +10474,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10588,25 +10561,25 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10617,21 +10590,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10643,17 +10616,15 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>168</v>
+        <v>481</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10702,75 +10673,73 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>246</v>
+        <v>488</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10794,13 +10763,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10818,25 +10787,25 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>247</v>
+        <v>486</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10847,10 +10816,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10858,7 +10827,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>85</v>
@@ -10873,15 +10842,17 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>490</v>
+        <v>173</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -10906,13 +10877,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -10930,10 +10901,10 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>85</v>
@@ -10945,24 +10916,24 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>493</v>
+        <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10985,17 +10956,15 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11020,13 +10989,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11044,7 +11013,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11062,7 +11031,7 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>502</v>
+        <v>330</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11073,10 +11042,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11099,17 +11068,15 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11134,13 +11101,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>507</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11158,7 +11125,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11173,24 +11140,24 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11213,15 +11180,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>211</v>
+        <v>508</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11270,7 +11239,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11285,246 +11254,20 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>340</v>
+        <v>513</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11534,7 +11277,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -781,46 +781,49 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSTipoConsulta</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -908,7 +911,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PatientLE)
 </t>
   </si>
   <si>
@@ -1112,6 +1115,65 @@
     <t>PV1-44, PV1-45</t>
   </si>
   <si>
+    <t>Encounter.period.id</t>
+  </si>
+  <si>
+    <t>Encounter.period.extension</t>
+  </si>
+  <si>
+    <t>Encounter.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>Encounter.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
     <t>Encounter.length</t>
   </si>
   <si>
@@ -1171,6 +1233,9 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
@@ -1178,6 +1243,33 @@
     <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
+    <t xml:space="preserve">value:reference}
+</t>
+  </si>
+  <si>
+    <t>Slice creado para almacenar diferentes tipos de reasonReference</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE</t>
+  </si>
+  <si>
+    <t>CondicionAtenderDiagnosticoConfirmacionLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderDiagnosticoConfirmacionLE)
+</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE</t>
+  </si>
+  <si>
+    <t>ObservationAtenderLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/ObservationAtenderLE)
+</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
@@ -1254,6 +1346,62 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].priority</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE</t>
+  </si>
+  <si>
+    <t>CondicionAtenderDiagnosticoSospechaLE</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.extension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderDiagnosticoSospechaLE)
+</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.use</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.rank</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE</t>
+  </si>
+  <si>
+    <t>CondicionAtenderHipotesisDiagnosticaCodigoLE</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.extension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderHipotesisDiagnosticaCodigoLE)
+</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.use</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.rank</t>
   </si>
   <si>
     <t>Encounter.account</t>
@@ -1916,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1925,9 +2073,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1935,7 +2083,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1953,7 +2101,7 @@
     <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="59.12109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
@@ -4993,13 +5141,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5035,21 +5181,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5075,10 +5221,10 @@
         <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5129,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5158,10 +5304,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5270,10 +5416,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5384,10 +5530,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5500,10 +5646,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5529,10 +5675,10 @@
         <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5562,10 +5708,10 @@
         <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5583,7 +5729,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>85</v>
@@ -5612,10 +5758,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5641,10 +5787,10 @@
         <v>201</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5695,7 +5841,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>85</v>
@@ -5724,10 +5870,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5753,13 +5899,13 @@
         <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5785,13 +5931,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5809,7 +5955,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5824,24 +5970,24 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5867,10 +6013,10 @@
         <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5897,13 +6043,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5921,7 +6067,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5936,7 +6082,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>155</v>
@@ -5945,15 +6091,15 @@
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5979,10 +6125,10 @@
         <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6009,13 +6155,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6033,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6051,35 +6197,35 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -6088,16 +6234,16 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6147,7 +6293,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6162,24 +6308,24 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6202,13 +6348,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6259,7 +6405,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6274,28 +6420,28 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6314,13 +6460,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6371,7 +6517,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6386,10 +6532,10 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6400,10 +6546,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6429,10 +6575,10 @@
         <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6483,7 +6629,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6498,24 +6644,24 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6624,10 +6770,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6738,10 +6884,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6854,10 +7000,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6883,13 +7029,13 @@
         <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6918,10 +7064,10 @@
         <v>178</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6939,7 +7085,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6954,24 +7100,24 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6997,10 +7143,10 @@
         <v>201</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7051,7 +7197,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7069,21 +7215,21 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7106,13 +7252,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7163,7 +7309,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7178,24 +7324,24 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7218,13 +7364,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7275,7 +7421,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7290,24 +7436,24 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7333,13 +7479,13 @@
         <v>201</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7389,7 +7535,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7401,27 +7547,27 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7444,17 +7590,15 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7503,7 +7647,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>354</v>
+        <v>154</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7515,31 +7659,31 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7555,19 +7699,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>365</v>
+        <v>134</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7593,31 +7737,31 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7629,41 +7773,41 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>78</v>
@@ -7672,16 +7816,16 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7731,39 +7875,39 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7774,7 +7918,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7786,20 +7930,24 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="R52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7843,16 +7991,16 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>97</v>
@@ -7861,21 +8009,21 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7898,15 +8046,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7955,7 +8105,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7967,31 +8117,31 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>155</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>130</v>
+        <v>382</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8007,19 +8157,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>157</v>
+        <v>384</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8045,13 +8195,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8069,7 +8219,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8081,63 +8231,61 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>234</v>
+        <v>382</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>235</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8173,19 +8321,19 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>237</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8197,31 +8345,33 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>128</v>
+        <v>389</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="D56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8231,7 +8381,7 @@
         <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
@@ -8240,16 +8390,16 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8299,13 +8449,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8314,55 +8464,59 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8387,13 +8541,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8411,13 +8565,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8426,24 +8580,24 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8451,28 +8605,28 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>393</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8511,25 +8665,25 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8541,7 +8695,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8552,10 +8706,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8566,7 +8720,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8578,17 +8732,15 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8637,25 +8789,25 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>154</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>405</v>
+        <v>155</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8666,21 +8818,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8692,16 +8844,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>157</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8751,25 +8903,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>155</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8780,42 +8932,46 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8863,25 +9019,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8892,21 +9048,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8915,19 +9071,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>157</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8977,75 +9133,71 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>161</v>
+        <v>411</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>235</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9069,13 +9221,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9093,25 +9245,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>237</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9122,10 +9274,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9148,13 +9300,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>143</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9205,7 +9357,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9223,50 +9375,52 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>147</v>
+        <v>428</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>419</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9317,13 +9471,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -9335,7 +9489,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9346,10 +9500,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9372,13 +9526,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>425</v>
+        <v>153</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9405,13 +9559,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9429,7 +9583,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>423</v>
+        <v>154</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9441,38 +9595,38 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9484,15 +9638,17 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9517,13 +9673,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9541,19 +9697,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>430</v>
+        <v>161</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9565,19 +9721,19 @@
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9590,25 +9746,25 @@
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>437</v>
+        <v>235</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>438</v>
+        <v>236</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9633,13 +9789,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9657,7 +9813,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>436</v>
+        <v>237</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9669,38 +9825,38 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>128</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9709,18 +9865,20 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>173</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9745,13 +9903,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9769,13 +9927,13 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
@@ -9784,24 +9942,24 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9812,7 +9970,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9827,10 +9985,10 @@
         <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9860,10 +10018,10 @@
         <v>109</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -9881,13 +10039,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -9899,21 +10057,21 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>457</v>
+        <v>155</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>458</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9936,13 +10094,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9993,7 +10151,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10011,50 +10169,52 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10081,13 +10241,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10105,13 +10265,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10123,21 +10283,21 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10148,7 +10308,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10160,17 +10320,15 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>152</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10219,25 +10377,25 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>475</v>
+        <v>155</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10248,21 +10406,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10274,15 +10432,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10331,19 +10491,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10360,14 +10520,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10380,24 +10540,26 @@
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10445,7 +10607,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10463,7 +10625,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10474,46 +10636,44 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>234</v>
+        <v>412</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>236</v>
+        <v>415</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10561,39 +10721,39 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10601,7 +10761,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>85</v>
@@ -10616,13 +10776,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10649,13 +10809,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10673,10 +10833,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>85</v>
@@ -10688,24 +10848,24 @@
         <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10728,17 +10888,15 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>425</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>487</v>
+        <v>426</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10763,13 +10921,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10787,7 +10945,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10805,7 +10963,7 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10816,10 +10974,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10830,7 +10988,7 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10842,16 +11000,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10877,13 +11035,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>498</v>
+        <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -10901,13 +11059,13 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
@@ -10919,7 +11077,7 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -10930,10 +11088,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10956,15 +11114,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11013,7 +11173,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11031,7 +11191,7 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>330</v>
+        <v>457</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11042,10 +11202,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11068,13 +11228,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>503</v>
+        <v>152</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>504</v>
+        <v>153</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11125,7 +11285,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>502</v>
+        <v>154</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11137,38 +11297,38 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>505</v>
+        <v>155</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11180,16 +11340,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>510</v>
+        <v>157</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>511</v>
+        <v>134</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11239,35 +11399,2297 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
+      <c r="M91" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN82" t="s" s="2">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN82">
+  <autoFilter ref="A1:AN102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11277,7 +13699,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2073,17 +2073,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="81.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="45.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2092,26 +2092,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="59.12109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="61.2734375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-EncounterAtenderLE.xlsx
+++ b/docs/StructureDefinition-EncounterAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="583">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -965,7 +965,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/ServiceRequestLE)
 </t>
   </si>
   <si>
@@ -1243,7 +1243,7 @@
     <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
-    <t xml:space="preserve">value:reference}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -1260,6 +1260,110 @@
 </t>
   </si>
   <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE.id</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference.id</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE.extension</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference.extension</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE.reference</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE.type</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:CondicionAtenderDiagnosticoConfirmacionLE.display</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Encounter.reasonReference:ObservationAtenderLE</t>
   </si>
   <si>
@@ -1270,6 +1374,27 @@
 </t>
   </si>
   <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE.id</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE.extension</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE.reference</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE.type</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference:ObservationAtenderLE.display</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
@@ -1298,7 +1423,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderDiagnosticoSospechaLE)
 </t>
   </si>
   <si>
@@ -1346,62 +1471,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].priority</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE</t>
-  </si>
-  <si>
-    <t>CondicionAtenderDiagnosticoSospechaLE</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.id</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.extension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderDiagnosticoSospechaLE)
-</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.use</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderDiagnosticoSospechaLE.rank</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE</t>
-  </si>
-  <si>
-    <t>CondicionAtenderHipotesisDiagnosticaCodigoLE</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.id</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.extension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionAtenderHipotesisDiagnosticaCodigoLE)
-</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.use</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis:CondicionAtenderHipotesisDiagnosticaCodigoLE.rank</t>
   </si>
   <si>
     <t>Encounter.account</t>
@@ -2064,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2073,9 +2142,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="81.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="45.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="42.55859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2083,7 +2152,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6445,13 +6514,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
@@ -8481,42 +8550,38 @@
         <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C57" t="s" s="2">
         <v>402</v>
       </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>152</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8565,70 +8630,72 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>154</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>389</v>
+        <v>155</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8665,10 +8732,10 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>396</v>
+        <v>158</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
@@ -8677,7 +8744,7 @@
         <v>160</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8689,13 +8756,13 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>407</v>
+        <v>155</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8706,10 +8773,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8729,18 +8796,20 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8789,7 +8858,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8798,16 +8867,16 @@
         <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8818,21 +8887,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8841,19 +8910,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>157</v>
+        <v>415</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8864,7 +8933,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -8879,13 +8948,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8903,25 +8972,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>161</v>
+        <v>420</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8932,46 +9001,44 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>236</v>
+        <v>424</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9019,25 +9086,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>237</v>
+        <v>426</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9048,18 +9115,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>85</v>
@@ -9074,16 +9141,16 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>413</v>
+        <v>151</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9133,10 +9200,10 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>85</v>
@@ -9148,55 +9215,59 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9221,13 +9292,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9245,13 +9316,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9260,24 +9331,24 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9300,13 +9371,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>151</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>152</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>427</v>
+        <v>153</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9357,7 +9428,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>154</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9369,13 +9440,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9386,43 +9457,43 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9459,19 +9530,19 @@
         <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9483,13 +9554,13 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>407</v>
+        <v>155</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9500,10 +9571,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9523,18 +9594,20 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9583,7 +9656,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9592,16 +9665,16 @@
         <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9612,21 +9685,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9635,19 +9708,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>157</v>
+        <v>415</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9658,7 +9731,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -9673,13 +9746,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9697,25 +9770,25 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>161</v>
+        <v>420</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9726,46 +9799,44 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>236</v>
+        <v>424</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9813,25 +9884,25 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>237</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9842,18 +9913,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>85</v>
@@ -9868,16 +9939,16 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9927,10 +9998,10 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>85</v>
@@ -9942,24 +10013,24 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9967,28 +10038,28 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10015,13 +10086,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10039,13 +10110,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10057,7 +10128,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>155</v>
+        <v>447</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10068,10 +10139,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10094,13 +10165,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>425</v>
+        <v>151</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>426</v>
+        <v>152</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>427</v>
+        <v>153</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10151,7 +10222,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>154</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10163,13 +10234,13 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10180,43 +10251,43 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10265,7 +10336,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10277,13 +10348,13 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>407</v>
+        <v>155</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10294,42 +10365,46 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10377,25 +10452,25 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10406,42 +10481,42 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>130</v>
+        <v>452</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>453</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>157</v>
+        <v>455</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10491,75 +10566,71 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>161</v>
+        <v>451</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>155</v>
+        <v>457</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10583,13 +10654,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10607,25 +10678,25 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>237</v>
+        <v>459</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10636,18 +10707,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>85</v>
@@ -10659,20 +10730,18 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10721,10 +10790,10 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>85</v>
@@ -10736,24 +10805,24 @@
         <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10764,7 +10833,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10776,15 +10845,17 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>173</v>
+        <v>470</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10809,13 +10880,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10833,13 +10904,13 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
@@ -10851,7 +10922,7 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>155</v>
+        <v>474</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10862,10 +10933,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10888,15 +10959,17 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>425</v>
+        <v>227</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10945,7 +11018,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10963,7 +11036,7 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10974,10 +11047,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10988,7 +11061,7 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11000,17 +11073,15 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>448</v>
+        <v>151</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>449</v>
+        <v>152</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11059,25 +11130,25 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>447</v>
+        <v>154</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>452</v>
+        <v>155</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11088,21 +11159,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11114,16 +11185,16 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
+        <v>132</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>455</v>
+        <v>157</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11173,25 +11244,25 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>453</v>
+        <v>161</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>457</v>
+        <v>155</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11202,42 +11273,46 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11285,25 +11360,25 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11314,21 +11389,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11340,17 +11415,15 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>132</v>
+        <v>484</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11399,75 +11472,71 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>161</v>
+        <v>483</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>235</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11515,25 +11584,25 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>237</v>
+        <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>128</v>
+        <v>491</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11544,10 +11613,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11570,13 +11639,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11603,13 +11672,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11627,7 +11696,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11645,21 +11714,21 @@
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>147</v>
+        <v>497</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>464</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11682,13 +11751,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>466</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11715,13 +11784,13 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11739,7 +11808,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11757,21 +11826,21 @@
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>469</v>
+        <v>155</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11782,7 +11851,7 @@
         <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -11797,13 +11866,17 @@
         <v>173</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11827,13 +11900,13 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -11851,13 +11924,13 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
@@ -11869,21 +11942,21 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>476</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11894,7 +11967,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11909,10 +11982,10 @@
         <v>173</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11939,13 +12012,13 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -11963,13 +12036,13 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
@@ -11981,21 +12054,21 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>155</v>
+        <v>519</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12021,17 +12094,13 @@
         <v>173</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12055,13 +12124,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12079,7 +12148,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12097,21 +12166,21 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>491</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12122,7 +12191,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12134,13 +12203,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12167,13 +12236,13 @@
         <v>78</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>78</v>
@@ -12191,13 +12260,13 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
@@ -12209,21 +12278,21 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>498</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12234,7 +12303,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12249,10 +12318,10 @@
         <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12279,13 +12348,13 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -12303,13 +12372,13 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
@@ -12321,21 +12390,21 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>505</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12346,7 +12415,7 @@
         <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12358,15 +12427,17 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>466</v>
+        <v>227</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12415,13 +12486,13 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
@@ -12433,21 +12504,21 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12470,13 +12541,13 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>512</v>
+        <v>152</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>513</v>
+        <v>153</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12503,13 +12574,13 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -12527,7 +12598,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>511</v>
+        <v>154</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -12539,31 +12610,31 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>516</v>
+        <v>155</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12582,16 +12653,16 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>519</v>
+        <v>132</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>520</v>
+        <v>157</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>521</v>
+        <v>134</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12641,7 +12712,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>518</v>
+        <v>161</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -12653,13 +12724,13 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
@@ -12670,42 +12741,46 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12753,25 +12828,25 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
@@ -12782,21 +12857,21 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -12808,17 +12883,15 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>131</v>
+        <v>549</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>132</v>
+        <v>550</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -12867,75 +12940,73 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>161</v>
+        <v>548</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>78</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>235</v>
+        <v>556</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>236</v>
+        <v>557</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -12959,13 +13030,13 @@
         <v>78</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>78</v>
@@ -12983,25 +13054,25 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>237</v>
+        <v>555</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>128</v>
+        <v>561</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13012,10 +13083,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13023,7 +13094,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>85</v>
@@ -13038,15 +13109,17 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>527</v>
+        <v>173</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -13071,13 +13144,13 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>78</v>
+        <v>566</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>78</v>
@@ -13095,10 +13168,10 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>85</v>
@@ -13110,24 +13183,24 @@
         <v>97</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>530</v>
+        <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>532</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13150,17 +13223,15 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13185,13 +13256,13 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>537</v>
+        <v>78</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>538</v>
+        <v>78</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
@@ -13209,7 +13280,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13227,7 +13298,7 @@
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>539</v>
+        <v>331</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
@@ -13238,10 +13309,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13264,17 +13335,15 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13299,13 +13368,13 @@
         <v>78</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>544</v>
+        <v>78</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>545</v>
+        <v>78</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13323,7 +13392,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13338,24 +13407,24 @@
         <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>78</v>
+        <v>574</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>78</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13378,15 +13447,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>201</v>
+        <v>577</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13435,7 +13506,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -13450,246 +13521,20 @@
         <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>78</v>
+        <v>581</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>331</v>
+        <v>582</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN102" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN102">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13699,7 +13544,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
